--- a/NAD-NADH_proliferation_uncouple/annotation_df.xlsx
+++ b/NAD-NADH_proliferation_uncouple/annotation_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/NAD-NADH_proliferation_uncouple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F9ACC6-52AB-DD43-9C84-84853F175A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E38827D-8A97-234C-97AD-4A62A3194829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="1540" windowWidth="21660" windowHeight="16200" xr2:uid="{B348B963-32BD-DF42-ABAA-751E749D8A2A}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>1.3719002097481816</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>1.3760887635139747</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>1.3642754662155234</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>1.3683573211496605</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>1.3673349283339424</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>1.3648672142025819</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.9</v>
+        <v>1.0685113476047834</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.9</v>
+        <v>1.0835459285056379</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.9</v>
+        <v>1.0552534968012119</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0.14264426372740593</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.1</v>
+        <v>0.16753990864725479</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0.1618914352032011</v>
       </c>
       <c r="G13" s="2"/>
     </row>

--- a/NAD-NADH_proliferation_uncouple/annotation_df.xlsx
+++ b/NAD-NADH_proliferation_uncouple/annotation_df.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/NAD-NADH_proliferation_uncouple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E38827D-8A97-234C-97AD-4A62A3194829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2065BDD0-4391-1A43-BDAC-948467D4D8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="1540" windowWidth="21660" windowHeight="16200" xr2:uid="{B348B963-32BD-DF42-ABAA-751E749D8A2A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Replicate</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Prlfr</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
 </sst>
 </file>
@@ -461,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6035E115-0D78-354E-B67C-7C21F40D25A9}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,7 +496,9 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -512,9 +517,11 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1.3719002097481816</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>1.3682253125537613</v>
+      </c>
+      <c r="G2">
+        <v>2901</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -533,9 +540,11 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1.3760887635139747</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>1.3718178210831689</v>
+      </c>
+      <c r="G3">
+        <v>2892</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -554,9 +563,11 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1.3642754662155234</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>1.3605001744522021</v>
+      </c>
+      <c r="G4">
+        <v>2959</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -575,7 +586,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1.3683573211496605</v>
+        <v>1.3640679084072813</v>
+      </c>
+      <c r="G5">
+        <v>2902</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -595,7 +609,10 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1.3673349283339424</v>
+        <v>1.3661059175893386</v>
+      </c>
+      <c r="G6">
+        <v>2857</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -615,7 +632,10 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1.3648672142025819</v>
+        <v>1.3603650730684675</v>
+      </c>
+      <c r="G7">
+        <v>2869</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -635,7 +655,10 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1.0685113476047834</v>
+        <v>1.068762762737006</v>
+      </c>
+      <c r="G8">
+        <v>3652</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -655,7 +678,10 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1.0835459285056379</v>
+        <v>1.0828424745919114</v>
+      </c>
+      <c r="G9">
+        <v>3584</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -675,7 +701,10 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1.0552534968012119</v>
+        <v>1.0565155365770138</v>
+      </c>
+      <c r="G10">
+        <v>3703</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -695,9 +724,11 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.14264426372740593</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>0.14541508226255648</v>
+      </c>
+      <c r="G11">
+        <v>4900</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -716,9 +747,11 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.16753990864725479</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>0.1712990304795331</v>
+      </c>
+      <c r="G12">
+        <v>4779</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -737,9 +770,11 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.1618914352032011</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>0.16578866901359912</v>
+      </c>
+      <c r="G13">
+        <v>4818</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
